--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,151 +46,151 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>ok</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
-    <t>parts</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -199,90 +199,78 @@
     <t>better</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -301,28 +289,31 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>enjoy</t>
   </si>
   <si>
     <t>family</t>
@@ -692,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -761,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -779,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -803,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -811,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -829,31 +820,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4">
-        <v>0.8</v>
-      </c>
-      <c r="L4">
-        <v>52</v>
-      </c>
-      <c r="M4">
-        <v>52</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -861,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.734375</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -879,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -911,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -929,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>0.6881720430107527</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -953,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -961,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7580645161290323</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C7">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D7">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -979,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1003,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1011,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.7162162162162162</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1029,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K8">
-        <v>0.5849056603773585</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1053,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1061,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.734375</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1079,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>0.515625</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L9">
         <v>33</v>
@@ -1103,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1111,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1129,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>0.391304347826087</v>
+        <v>0.53125</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1153,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,16 +1173,16 @@
         <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K11">
-        <v>0.380327868852459</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L11">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>464</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1203,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>756</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6554054054054054</v>
+        <v>0.6386554621848739</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K12">
-        <v>0.3304597701149425</v>
+        <v>0.3622950819672131</v>
       </c>
       <c r="L12">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="M12">
-        <v>231</v>
+        <v>442</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1250,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>466</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1252,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6181818181818182</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K13">
-        <v>0.2883817427385892</v>
+        <v>0.3433908045977012</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>343</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1311,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1329,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K14">
-        <v>0.2349397590361446</v>
+        <v>0.2800829875518672</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1353,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>127</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1361,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5862068965517241</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1379,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K15">
-        <v>0.2333333333333333</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1403,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1411,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,16 +1423,16 @@
         <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>0.1865443425076453</v>
+        <v>0.2140672782874618</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1461,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5101449275362319</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C17">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1479,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>0.1481481481481481</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1503,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1511,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4857142857142857</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K18">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1553,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1561,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4736842105263158</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1579,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K19">
-        <v>0.1204819277108434</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1611,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4457831325301205</v>
+        <v>0.4960629921259843</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K20">
-        <v>0.09640666082383874</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1653,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1031</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1661,7 +1652,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C21">
         <v>18</v>
@@ -1679,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K21">
-        <v>0.09139784946236559</v>
+        <v>0.1044176706827309</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1703,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>169</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,13 +1702,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4259259259259259</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1729,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K22">
-        <v>0.07242339832869081</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1753,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>333</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1761,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4173228346456693</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1779,31 +1770,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K23">
-        <v>0.04415584415584416</v>
+        <v>0.08676599474145487</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1472</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1811,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3947368421052632</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -1829,31 +1820,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.02275769745649264</v>
+        <v>0.06128133704735376</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>22</v>
       </c>
       <c r="N24">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>730</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1861,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3820224719101123</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1879,7 +1870,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25">
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>77</v>
+      </c>
+      <c r="M25">
+        <v>78</v>
+      </c>
+      <c r="N25">
+        <v>0.99</v>
+      </c>
+      <c r="O25">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1463</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3777777777777778</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,7 +1920,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="L26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>0.91</v>
+      </c>
+      <c r="O26">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.359375</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1978,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3366336633663367</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1965,13 +2004,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3364928909952606</v>
+        <v>0.359375</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1983,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2017,13 +2056,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3174603174603174</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2035,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2043,13 +2082,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3061224489795918</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2061,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2069,13 +2108,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2087,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2095,13 +2134,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.296875</v>
+        <v>0.3033175355450237</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2113,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2121,13 +2160,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2758620689655172</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2139,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>42</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2147,13 +2186,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2165,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2199,13 +2238,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2380952380952381</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2217,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2225,13 +2264,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2371134020618557</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C39">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2243,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2251,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2173913043478261</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2269,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2277,13 +2316,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.213768115942029</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D41">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2295,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>217</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2303,13 +2342,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2088607594936709</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C42">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2321,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2329,13 +2368,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2038216560509554</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2347,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>125</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2355,13 +2394,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1965811965811966</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2373,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>94</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2407,13 +2446,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1958456973293768</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C46">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2425,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>542</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2433,13 +2472,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1928571428571429</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2451,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2459,13 +2498,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1855670103092784</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2477,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>79</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2485,13 +2524,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1758241758241758</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2503,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2511,25 +2550,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.175</v>
+        <v>0.175792507204611</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>165</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2537,13 +2576,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.173469387755102</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2555,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2563,13 +2602,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.171875</v>
+        <v>0.16</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D52">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2581,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>106</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2589,13 +2628,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1610169491525424</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2607,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2615,25 +2654,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1585903083700441</v>
+        <v>0.1501103752759382</v>
       </c>
       <c r="C54">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2641,13 +2680,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1448598130841121</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2659,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2667,13 +2706,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1388888888888889</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2685,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>93</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2693,13 +2732,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.132183908045977</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C57">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2711,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2719,13 +2758,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1307692307692308</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2737,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>113</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2745,25 +2784,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1256830601092896</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2771,13 +2810,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1256544502617801</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2789,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2797,13 +2836,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.12</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2815,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2823,7 +2862,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1103896103896104</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C62">
         <v>17</v>
@@ -2841,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2849,13 +2888,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1086142322097378</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2867,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>238</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2875,25 +2914,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1016260162601626</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>221</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2901,25 +2940,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.101063829787234</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>169</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2927,25 +2966,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09863013698630137</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2953,25 +2992,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09714285714285714</v>
+        <v>0.05348837209302326</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>158</v>
+        <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2979,25 +3018,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08854166666666667</v>
+        <v>0.05152224824355972</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>175</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3005,25 +3044,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07920792079207921</v>
+        <v>0.04746835443037975</v>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F69">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>558</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3031,25 +3070,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07857142857142857</v>
+        <v>0.03675344563552833</v>
       </c>
       <c r="C70">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>258</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3057,25 +3096,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07692307692307693</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>180</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3083,155 +3122,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07062146892655367</v>
+        <v>0.03426395939086294</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.0645879732739421</v>
-      </c>
-      <c r="C73">
-        <v>29</v>
-      </c>
-      <c r="D73">
-        <v>29</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.05568445475638051</v>
-      </c>
-      <c r="C74">
-        <v>24</v>
-      </c>
-      <c r="D74">
-        <v>27</v>
-      </c>
-      <c r="E74">
-        <v>0.11</v>
-      </c>
-      <c r="F74">
-        <v>0.89</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.04441624365482234</v>
-      </c>
-      <c r="C75">
-        <v>35</v>
-      </c>
-      <c r="D75">
-        <v>41</v>
-      </c>
-      <c r="E75">
-        <v>0.15</v>
-      </c>
-      <c r="F75">
-        <v>0.85</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.0351288056206089</v>
-      </c>
-      <c r="C76">
-        <v>15</v>
-      </c>
-      <c r="D76">
-        <v>17</v>
-      </c>
-      <c r="E76">
-        <v>0.12</v>
-      </c>
-      <c r="F76">
-        <v>0.88</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.03211009174311927</v>
-      </c>
-      <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>22</v>
-      </c>
-      <c r="E77">
-        <v>0.05</v>
-      </c>
-      <c r="F77">
-        <v>0.95</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>633</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
